--- a/Operational/Germany_2022/Costs.xlsx
+++ b/Operational/Germany_2022/Costs.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Desktop/Dummy Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/ESM-Py/Operational/Germany_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE533B-7581-164F-BFEE-6F1A14BA27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7479BF1-E11D-F744-B829-9204C19E71BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{A5640802-85C6-1B49-80D5-68818D598678}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{A5640802-85C6-1B49-80D5-68818D598678}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>PV</t>
   </si>
@@ -46,16 +47,93 @@
   </si>
   <si>
     <t>Variable</t>
+  </si>
+  <si>
+    <t>WEO 2020 -EU (USD/MWh)</t>
+  </si>
+  <si>
+    <t>IEA-ETSAP</t>
+  </si>
+  <si>
+    <t>IRENA 2020 -Germany</t>
+  </si>
+  <si>
+    <t>V-OM,Fuel,CO2</t>
+  </si>
+  <si>
+    <t>V-OM</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>***The reported biomass costs of IEA-ETSAP is for a Biomass CHP plant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +159,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0252C1EA-6737-2049-B1B9-48FAB97D9694}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -438,4 +530,234 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE237E94-546F-5245-B9A7-75C0AA69A86D}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <f>148/8760*1000</f>
+        <v>16.894977168949772</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <f>50/8760*1000</f>
+        <v>5.7077625570776256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <f>120/8760*1000</f>
+        <v>13.698630136986301</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <f>115/8760*1000</f>
+        <v>13.127853881278538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <f>70/8760*1000</f>
+        <v>7.9908675799086755</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <f>40/8760*1000</f>
+        <v>4.5662100456620998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <f>9/8760*1000</f>
+        <v>1.0273972602739725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5">
+        <f>36/8760*1000</f>
+        <v>4.10958904109589</v>
+      </c>
+      <c r="D10" s="5">
+        <f>115/2</f>
+        <v>57.5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <f>100/8760*1000</f>
+        <v>11.415525114155251</v>
+      </c>
+      <c r="D12" s="5">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Operational/Germany_2022/Costs.xlsx
+++ b/Operational/Germany_2022/Costs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/ESM-Py/Operational/Germany_2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Documents/GitHub/ESM-Py/Operational/Germany_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7479BF1-E11D-F744-B829-9204C19E71BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC815395-AABA-AB43-94F6-74C91187A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{A5640802-85C6-1B49-80D5-68818D598678}"/>
+    <workbookView xWindow="14160" yWindow="2420" windowWidth="28040" windowHeight="16420" xr2:uid="{A5640802-85C6-1B49-80D5-68818D598678}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>Fix</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -101,6 +92,39 @@
   </si>
   <si>
     <t>***The reported biomass costs of IEA-ETSAP is for a Biomass CHP plant</t>
+  </si>
+  <si>
+    <t>Nuclear Power Plant</t>
+  </si>
+  <si>
+    <t>Coal Power Plant</t>
+  </si>
+  <si>
+    <t>Wind Power Plant</t>
+  </si>
+  <si>
+    <t>Geothermal Power Plant</t>
+  </si>
+  <si>
+    <t>Hydro Power Plant</t>
+  </si>
+  <si>
+    <t>Solar Power</t>
+  </si>
+  <si>
+    <t>Waste and Biomass</t>
+  </si>
+  <si>
+    <t>Gas Power Plants</t>
+  </si>
+  <si>
+    <t>Oil Power Plants</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Imports</t>
   </si>
 </sst>
 </file>
@@ -164,9 +188,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +196,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,42 +513,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0252C1EA-6737-2049-B1B9-48FAB97D9694}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="E2">
+        <v>13.127853881278538</v>
+      </c>
+      <c r="F2">
+        <v>4.5662100456620998</v>
+      </c>
+      <c r="G2">
+        <v>1.0273972602739725</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>68</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>3</v>
+      <c r="L2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -536,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE237E94-546F-5245-B9A7-75C0AA69A86D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,210 +615,210 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
         <v>90</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>148/8760*1000</f>
         <v>16.894977168949772</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
         <f>50/8760*1000</f>
         <v>5.7077625570776256</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
         <f>120/8760*1000</f>
         <v>13.698630136986301</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
         <f>115/8760*1000</f>
         <v>13.127853881278538</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
         <f>70/8760*1000</f>
         <v>7.9908675799086755</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
         <f>40/8760*1000</f>
         <v>4.5662100456620998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
         <f>9/8760*1000</f>
         <v>1.0273972602739725</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
         <v>80</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>36/8760*1000</f>
         <v>4.10958904109589</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>115/2</f>
         <v>57.5</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
         <f>100/8760*1000</f>
         <v>11.415525114155251</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Operational/Germany_2022/Costs.xlsx
+++ b/Operational/Germany_2022/Costs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Documents/GitHub/ESM-Py/Operational/Germany_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC815395-AABA-AB43-94F6-74C91187A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743D085-4A86-6845-BA68-949ACA34446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="2420" windowWidth="28040" windowHeight="16420" xr2:uid="{A5640802-85C6-1B49-80D5-68818D598678}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{A5640802-85C6-1B49-80D5-68818D598678}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Data0" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Variable</t>
   </si>
@@ -125,6 +126,9 @@
   </si>
   <si>
     <t>Imports</t>
+  </si>
+  <si>
+    <t>CO2Tax</t>
   </si>
 </sst>
 </file>
@@ -512,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0252C1EA-6737-2049-B1B9-48FAB97D9694}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A437F8A2-8D1F-F841-AD80-E454D7BC28A2}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,37 +565,75 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>5.7077625570776256</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>13.127853881278538</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>4.5662100456620998</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1.0273972602739725</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>110</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -600,11 +642,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0252C1EA-6737-2049-B1B9-48FAB97D9694}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="E2">
+        <v>13.127853881278538</v>
+      </c>
+      <c r="F2">
+        <v>4.5662100456620998</v>
+      </c>
+      <c r="G2">
+        <v>1.0273972602739725</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE237E94-546F-5245-B9A7-75C0AA69A86D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
